--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -212,6 +212,69 @@
   </x:si>
   <x:si>
     <x:t>Navigate to the  Account page on Salesforce.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields to enter to create a new Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saved changes successfully for the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Account selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Account successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields to modify for an existing Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Account successfully</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -295,8 +358,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J28" totalsRowShown="0">
-  <x:autoFilter ref="A1:J28"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0">
+  <x:autoFilter ref="A1:J38"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -601,7 +664,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J28"/>
+  <x:dimension ref="A1:J38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -611,7 +674,7 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="41.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="41.550625000000004" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="107.70062499999999" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="102.70062499999999" style="0" customWidth="1"/>
@@ -1167,6 +1230,222 @@
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
     </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s"/>
+      <x:c r="F29" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s"/>
+      <x:c r="B36" s="0" t="s"/>
+      <x:c r="C36" s="0" t="s"/>
+      <x:c r="D36" s="0" t="s"/>
+      <x:c r="E36" s="0" t="s"/>
+      <x:c r="F36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s"/>
+      <x:c r="F37" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
